--- a/test_output_integration.xlsx
+++ b/test_output_integration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Page 1" state="visible" r:id="rId4"/>
@@ -13,7 +13,7 @@
     <sheet sheetId="6" name="Page 4" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A1:$Q44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A1:$Q43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Page 2'!$A1:$Q43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Page 3'!$A1:$Q43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Page 4'!$A1:$Q43</definedName>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="115">
   <si>
     <t>Think Cafe PM (Test)</t>
   </si>
@@ -75,6 +75,12 @@
     <t>10</t>
   </si>
   <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Student10, First10</t>
   </si>
   <si>
@@ -364,9 +370,6 @@
   </si>
   <si>
     <t>Student95, First95</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Group</t>
@@ -1751,21 +1754,51 @@
       <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="31"/>
+      <c r="C10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>16</v>
+      </c>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
@@ -1774,26 +1807,56 @@
     </row>
     <row r="11" ht="18.95" customHeight="1" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="42" t="s">
+        <v>15</v>
+      </c>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
@@ -1802,26 +1865,56 @@
     </row>
     <row r="12" ht="18.95" customHeight="1" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="52"/>
+        <v>20</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="S12" s="32"/>
       <c r="T12" s="32"/>
       <c r="U12" s="32"/>
@@ -1830,736 +1923,1648 @@
     </row>
     <row r="13" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="42"/>
+        <v>22</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="52"/>
+      <c r="C14" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="42" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="52"/>
+        <v>20</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="52" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="42"/>
+        <v>22</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="52"/>
+      <c r="C18" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="52"/>
+        <v>20</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="52"/>
+        <v>22</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="P22" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="52" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="42"/>
+      <c r="C23" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="52"/>
+        <v>18</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="52"/>
+        <v>22</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="42"/>
+      <c r="C27" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="42" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="52"/>
+        <v>18</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="52"/>
+        <v>22</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="42"/>
+      <c r="C31" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O31" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="32" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="52"/>
+        <v>20</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="33" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="42" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="52"/>
+        <v>20</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="42"/>
+        <v>22</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="52"/>
+      <c r="C36" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="37" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O37" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="38" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="52"/>
+        <v>20</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="P38" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="52" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="39" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="42"/>
+        <v>22</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O39" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q39" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="40" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="52"/>
+      <c r="C40" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q40" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="41" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="42" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="52"/>
+        <v>20</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O42" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="43" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="42"/>
-    </row>
-    <row r="44" ht="20.1" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="70"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="71"/>
-    </row>
+        <v>22</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="M43" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O43" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P43" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="B3:G3"/>
@@ -2825,26 +3830,56 @@
     </row>
     <row r="10" ht="18.95" customHeight="1" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="31"/>
+        <v>22</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
@@ -2853,26 +3888,56 @@
     </row>
     <row r="11" ht="18.95" customHeight="1" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="42"/>
+      <c r="C11" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="42" t="s">
+        <v>16</v>
+      </c>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
@@ -2881,26 +3946,56 @@
     </row>
     <row r="12" ht="18.95" customHeight="1" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="52"/>
+        <v>18</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="S12" s="32"/>
       <c r="T12" s="32"/>
       <c r="U12" s="32"/>
@@ -2909,716 +4004,1646 @@
     </row>
     <row r="13" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="52"/>
+        <v>22</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="52"/>
+      <c r="C15" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="52" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="52"/>
+        <v>20</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="42"/>
+        <v>22</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="52"/>
+      <c r="C19" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="52" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="42"/>
+      <c r="C20" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="42" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="52"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="52" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="52"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="42"/>
+      <c r="C24" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="52"/>
+        <v>18</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P26" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="42" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="52"/>
+        <v>22</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B28" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="42"/>
+      <c r="C28" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="52"/>
+        <v>18</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="52"/>
+        <v>18</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="32" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="42"/>
+        <v>22</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P32" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="42" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B33" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="52"/>
+      <c r="C33" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="34" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="52"/>
+        <v>20</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="42"/>
+        <v>22</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O36" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="37" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B37" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="52"/>
+      <c r="C37" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O37" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="P37" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q37" s="52" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="38" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="39" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="52"/>
+        <v>20</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O39" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q39" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="40" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="42"/>
+        <v>22</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q40" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="41" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="52"/>
+      <c r="C41" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O41" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="42" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B42" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="43" ht="20.1" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="62" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="71"/>
+        <v>18</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="N43" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="O43" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="P43" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q43" s="71" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3883,26 +5908,56 @@
     </row>
     <row r="10" ht="18.95" customHeight="1" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>16</v>
+      </c>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
@@ -3911,26 +5966,56 @@
     </row>
     <row r="11" ht="18.95" customHeight="1" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="42"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="42" t="s">
+        <v>16</v>
+      </c>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
@@ -3939,26 +6024,56 @@
     </row>
     <row r="12" ht="18.95" customHeight="1" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="52"/>
+      <c r="C12" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="S12" s="32"/>
       <c r="T12" s="32"/>
       <c r="U12" s="32"/>
@@ -3967,716 +6082,1646 @@
     </row>
     <row r="13" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="52"/>
+        <v>20</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="52" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="52"/>
+        <v>22</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="42"/>
+      <c r="C16" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="52"/>
+        <v>18</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="52"/>
+        <v>22</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="42"/>
+        <v>22</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="42" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="52"/>
+      <c r="C21" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="52"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="42"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="42" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B25" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="52"/>
+      <c r="C25" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="52" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="52"/>
+        <v>20</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="42"/>
+        <v>22</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B29" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="52"/>
+      <c r="C29" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="42"/>
+      <c r="C30" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="52"/>
+        <v>18</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q31" s="52" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="33" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="60" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="52"/>
+        <v>22</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="34" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B34" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="42"/>
+      <c r="C34" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="52"/>
+        <v>18</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q36" s="42" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="52"/>
+        <v>16</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O37" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="38" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="42"/>
+        <v>16</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="39" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="52"/>
+        <v>16</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O39" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q39" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="40" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="42"/>
+        <v>16</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q40" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="41" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="60" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="52"/>
+        <v>16</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="52" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="42" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="B42" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="42"/>
+        <v>16</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="43" ht="20.1" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="62" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="71"/>
+        <v>16</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="N43" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="O43" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="P43" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="71" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4755,7 +7800,7 @@
     <row r="4" ht="18" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>

--- a/test_output_integration.xlsx
+++ b/test_output_integration.xlsx
@@ -23,9 +23,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="115">
   <si>
     <t>Think Cafe PM (Test)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
   <si>
     <t>Older Youth Leader</t>
@@ -78,9 +84,6 @@
     <t>✔</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Student10, First10</t>
   </si>
   <si>
@@ -370,9 +373,6 @@
   </si>
   <si>
     <t>Student95, First95</t>
-  </si>
-  <si>
-    <t>Group</t>
   </si>
 </sst>
 </file>
@@ -1545,25 +1545,31 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="N3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1572,14 +1578,14 @@
       <c r="G4" s="9"/>
       <c r="H4" s="2"/>
       <c r="I4" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="2"/>
       <c r="N4" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -1659,27 +1665,27 @@
     </row>
     <row r="8" ht="33" customHeight="1" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -1691,55 +1697,55 @@
     </row>
     <row r="9" ht="26.25" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="J9" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="M9" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="P9" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
@@ -1749,55 +1755,55 @@
     </row>
     <row r="10" ht="18.95" customHeight="1" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O10" s="30" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
@@ -1807,55 +1813,55 @@
     </row>
     <row r="11" ht="18.95" customHeight="1" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K11" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L11" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
@@ -1865,55 +1871,55 @@
     </row>
     <row r="12" ht="18.95" customHeight="1" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L12" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M12" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N12" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P12" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S12" s="32"/>
       <c r="T12" s="32"/>
@@ -1923,1645 +1929,1645 @@
     </row>
     <row r="13" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L13" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O13" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K14" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L14" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M14" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N14" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O14" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P14" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K15" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L15" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N15" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O15" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I16" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K16" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L16" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M16" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N16" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O16" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P16" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I18" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K18" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L18" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N18" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O18" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P18" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F19" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K19" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L19" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M19" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N19" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O19" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P19" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I20" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J20" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K20" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L20" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M20" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N20" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O20" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P20" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I21" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L21" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N21" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O21" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F22" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I22" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J22" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K22" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M22" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N22" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O22" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P22" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I23" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K23" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L23" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M23" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N23" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O23" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P23" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F24" s="54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J24" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K24" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L24" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M24" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N24" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O24" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P24" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I25" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K25" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L25" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M25" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N25" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O25" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P25" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F26" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I26" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J26" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K26" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L26" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M26" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N26" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O26" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P26" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I27" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L27" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M27" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N27" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O27" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P27" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q27" s="42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F28" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I28" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J28" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K28" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L28" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M28" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N28" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O28" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P28" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I29" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L29" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M29" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N29" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O29" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P29" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F30" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G30" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H30" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I30" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J30" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K30" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L30" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M30" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N30" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O30" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P30" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F31" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H31" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I31" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L31" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M31" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N31" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O31" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P31" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F32" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G32" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H32" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I32" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J32" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K32" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L32" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M32" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N32" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O32" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P32" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F33" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H33" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I33" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K33" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L33" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M33" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O33" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P33" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q33" s="42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F34" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G34" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H34" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I34" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J34" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K34" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L34" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M34" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N34" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O34" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P34" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I35" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K35" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L35" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M35" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N35" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O35" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P35" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F36" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G36" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I36" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J36" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K36" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L36" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M36" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N36" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O36" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P36" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F37" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K37" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L37" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M37" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N37" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O37" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P37" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F38" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G38" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I38" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J38" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K38" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L38" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M38" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N38" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O38" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P38" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q38" s="52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F39" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G39" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I39" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K39" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L39" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M39" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N39" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O39" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P39" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F40" s="54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G40" s="49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J40" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K40" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L40" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M40" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N40" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O40" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P40" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F41" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I41" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K41" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L41" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M41" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N41" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O41" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P41" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F42" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G42" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I42" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J42" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K42" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L42" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M42" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N42" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O42" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P42" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F43" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I43" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K43" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L43" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M43" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N43" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O43" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P43" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3626,25 +3632,31 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="N3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -3653,14 +3665,14 @@
       <c r="G4" s="9"/>
       <c r="H4" s="2"/>
       <c r="I4" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="2"/>
       <c r="N4" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -3740,27 +3752,27 @@
     </row>
     <row r="8" ht="33" customHeight="1" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -3772,55 +3784,55 @@
     </row>
     <row r="9" ht="26.25" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="J9" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="M9" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="P9" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
@@ -3830,55 +3842,55 @@
     </row>
     <row r="10" ht="18.95" customHeight="1" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O10" s="30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
@@ -3888,55 +3900,55 @@
     </row>
     <row r="11" ht="18.95" customHeight="1" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K11" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L11" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
@@ -3946,55 +3958,55 @@
     </row>
     <row r="12" ht="18.95" customHeight="1" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L12" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M12" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N12" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P12" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S12" s="32"/>
       <c r="T12" s="32"/>
@@ -4004,1645 +4016,1645 @@
     </row>
     <row r="13" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L13" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O13" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K14" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L14" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M14" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N14" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O14" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P14" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I15" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K15" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L15" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M15" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N15" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O15" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P15" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L16" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N16" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O16" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I17" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J17" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K17" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L17" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M17" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N17" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O17" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P17" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L18" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N18" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O18" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P18" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I19" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J19" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K19" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L19" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N19" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O19" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P19" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L20" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O20" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P20" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I21" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J21" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K21" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L21" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M21" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N21" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O21" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P21" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I22" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K22" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L22" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N22" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O22" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P22" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F23" s="54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I23" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J23" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K23" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L23" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M23" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O23" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P23" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I24" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L24" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M24" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O24" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P24" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F25" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I25" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J25" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K25" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L25" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M25" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N25" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O25" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P25" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I26" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L26" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M26" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N26" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O26" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q26" s="42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F27" s="54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G27" s="49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I27" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J27" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K27" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L27" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M27" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N27" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O27" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P27" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I28" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L28" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M28" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N28" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O28" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P28" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F29" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H29" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I29" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K29" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L29" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M29" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N29" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O29" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P29" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I30" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L30" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M30" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N30" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O30" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P30" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G31" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H31" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I31" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J31" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K31" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L31" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M31" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N31" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O31" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P31" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F32" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K32" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L32" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M32" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N32" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O32" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P32" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q32" s="42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F33" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I33" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J33" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K33" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L33" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M33" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N33" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O33" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P33" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F34" s="55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K34" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L34" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M34" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N34" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O34" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P34" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F35" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G35" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I35" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J35" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K35" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L35" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M35" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N35" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O35" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P35" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F36" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H36" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I36" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K36" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L36" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M36" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N36" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O36" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P36" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F37" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G37" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I37" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J37" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K37" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L37" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M37" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N37" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O37" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P37" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q37" s="52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F38" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I38" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K38" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L38" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M38" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N38" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O38" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P38" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F39" s="54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G39" s="49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I39" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J39" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K39" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L39" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M39" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N39" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O39" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P39" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F40" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I40" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K40" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L40" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M40" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N40" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O40" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P40" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F41" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G41" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H41" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I41" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J41" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K41" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L41" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M41" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N41" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O41" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P41" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" s="59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F42" s="55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K42" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L42" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M42" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N42" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O42" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P42" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="20.1" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C43" s="64" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E43" s="66" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F43" s="67" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G43" s="68" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H43" s="69" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I43" s="70" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J43" s="65" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K43" s="66" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L43" s="70" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M43" s="65" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N43" s="66" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O43" s="70" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P43" s="65" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q43" s="71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5704,25 +5716,31 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="N3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -5731,14 +5749,14 @@
       <c r="G4" s="9"/>
       <c r="H4" s="2"/>
       <c r="I4" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="2"/>
       <c r="N4" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -5818,27 +5836,27 @@
     </row>
     <row r="8" ht="33" customHeight="1" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -5850,55 +5868,55 @@
     </row>
     <row r="9" ht="26.25" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="J9" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="M9" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="P9" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
@@ -5908,55 +5926,55 @@
     </row>
     <row r="10" ht="18.95" customHeight="1" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O10" s="30" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
@@ -5966,55 +5984,55 @@
     </row>
     <row r="11" ht="18.95" customHeight="1" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K11" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L11" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
@@ -6024,55 +6042,55 @@
     </row>
     <row r="12" ht="18.95" customHeight="1" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L12" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M12" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N12" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P12" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S12" s="32"/>
       <c r="T12" s="32"/>
@@ -6082,1645 +6100,1645 @@
     </row>
     <row r="13" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L13" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O13" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K14" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L14" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M14" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N14" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O14" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P14" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I15" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K15" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L15" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M15" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N15" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O15" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P15" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L16" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N16" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O16" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I17" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J17" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K17" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L17" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M17" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N17" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O17" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P17" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L18" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N18" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O18" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P18" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I19" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J19" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K19" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L19" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N19" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O19" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P19" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L20" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O20" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P20" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I21" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J21" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K21" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L21" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M21" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N21" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O21" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P21" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I22" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K22" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L22" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N22" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O22" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P22" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F23" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I23" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J23" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K23" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L23" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M23" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O23" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P23" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I24" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L24" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M24" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O24" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P24" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F25" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I25" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J25" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K25" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L25" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M25" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N25" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O25" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P25" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q25" s="52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I26" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L26" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M26" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N26" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O26" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F27" s="54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G27" s="49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I27" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J27" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K27" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L27" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M27" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N27" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O27" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P27" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I28" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L28" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M28" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N28" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O28" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P28" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F29" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H29" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I29" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K29" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L29" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M29" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N29" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O29" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P29" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I30" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L30" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M30" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N30" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O30" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P30" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G31" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H31" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I31" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J31" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K31" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L31" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M31" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N31" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O31" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P31" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q31" s="52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F32" s="55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K32" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L32" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M32" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N32" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O32" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P32" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F33" s="54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I33" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J33" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K33" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L33" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M33" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N33" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O33" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P33" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F34" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K34" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L34" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M34" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N34" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O34" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P34" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F35" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G35" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I35" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J35" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K35" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L35" s="51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M35" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N35" s="47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O35" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P35" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F36" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H36" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I36" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K36" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L36" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M36" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N36" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O36" s="41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P36" s="36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q36" s="42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F37" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G37" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I37" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J37" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K37" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L37" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M37" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N37" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O37" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P37" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F38" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I38" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K38" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L38" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M38" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N38" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O38" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P38" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F39" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G39" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I39" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J39" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K39" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L39" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M39" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N39" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O39" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P39" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F40" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I40" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K40" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L40" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M40" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N40" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O40" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P40" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="60" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F41" s="54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G41" s="49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H41" s="50" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I41" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J41" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K41" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L41" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M41" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N41" s="47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O41" s="51" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P41" s="46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="52" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="18.95" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B42" s="59" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F42" s="55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K42" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L42" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M42" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N42" s="37" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O42" s="41" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P42" s="36" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="20.1" customHeight="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="62" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C43" s="64" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E43" s="66" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F43" s="67" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G43" s="68" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H43" s="69" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I43" s="70" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J43" s="65" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K43" s="66" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L43" s="70" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M43" s="65" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N43" s="66" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O43" s="70" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P43" s="65" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="71" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7800,7 +7818,7 @@
     <row r="4" ht="18" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="8" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -7809,14 +7827,14 @@
       <c r="G4" s="9"/>
       <c r="H4" s="2"/>
       <c r="I4" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="2"/>
       <c r="N4" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -7896,27 +7914,27 @@
     </row>
     <row r="8" ht="33" customHeight="1" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -7928,55 +7946,55 @@
     </row>
     <row r="9" ht="26.25" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="J9" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="M9" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="P9" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
